--- a/predictions полгода до/Прогнозы_GP_Combo_3.xlsx
+++ b/predictions полгода до/Прогнозы_GP_Combo_3.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20988758.35938013</v>
+        <v>21144678.38673735</v>
       </c>
       <c r="C2" t="n">
-        <v>21332193.92218357</v>
+        <v>21531924.84310961</v>
       </c>
       <c r="D2" t="n">
-        <v>21675629.48498678</v>
+        <v>21876700.37629175</v>
       </c>
       <c r="E2" t="n">
-        <v>22019065.04778987</v>
+        <v>22217488.17982578</v>
       </c>
       <c r="F2" t="n">
-        <v>22362500.61059272</v>
+        <v>22557129.46191192</v>
       </c>
       <c r="G2" t="n">
-        <v>22705936.17339587</v>
+        <v>22897508.13040709</v>
       </c>
       <c r="H2" t="n">
-        <v>23049371.73619914</v>
+        <v>23239690.06933117</v>
       </c>
       <c r="I2" t="n">
-        <v>23392807.29900157</v>
+        <v>23582980.98646593</v>
       </c>
       <c r="J2" t="n">
-        <v>23736242.86180443</v>
+        <v>23925620.38842058</v>
       </c>
       <c r="K2" t="n">
-        <v>24079678.42460769</v>
+        <v>24266472.71226835</v>
       </c>
       <c r="L2" t="n">
-        <v>24423113.98741019</v>
+        <v>24606137.31697249</v>
       </c>
       <c r="M2" t="n">
-        <v>24766549.55021322</v>
+        <v>24946360.74830079</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6837019.533033669</v>
+        <v>3833008.441754818</v>
       </c>
       <c r="C3" t="n">
-        <v>6533306.143165171</v>
+        <v>3912862.784291506</v>
       </c>
       <c r="D3" t="n">
-        <v>6295984.117343843</v>
+        <v>3992717.126827955</v>
       </c>
       <c r="E3" t="n">
-        <v>6113943.801529586</v>
+        <v>4072571.469364285</v>
       </c>
       <c r="F3" t="n">
-        <v>5977934.584867716</v>
+        <v>4152425.811901093</v>
       </c>
       <c r="G3" t="n">
-        <v>5880253.815153599</v>
+        <v>4232280.154437661</v>
       </c>
       <c r="H3" t="n">
-        <v>5814487.769885719</v>
+        <v>4312134.496974349</v>
       </c>
       <c r="I3" t="n">
-        <v>5775295.972144663</v>
+        <v>4391988.839510798</v>
       </c>
       <c r="J3" t="n">
-        <v>5758231.598150432</v>
+        <v>4471843.182047129</v>
       </c>
       <c r="K3" t="n">
-        <v>5759591.937074065</v>
+        <v>4551697.524583697</v>
       </c>
       <c r="L3" t="n">
-        <v>5776293.874278247</v>
+        <v>4631551.867120266</v>
       </c>
       <c r="M3" t="n">
-        <v>5805770.210673511</v>
+        <v>4711406.209656954</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2185981.628606498</v>
+        <v>3052474.968315125</v>
       </c>
       <c r="C4" t="n">
-        <v>2231522.912535816</v>
+        <v>3116068.19682169</v>
       </c>
       <c r="D4" t="n">
-        <v>2277064.196465075</v>
+        <v>3179661.425328255</v>
       </c>
       <c r="E4" t="n">
-        <v>2322605.480394393</v>
+        <v>3243254.653834343</v>
       </c>
       <c r="F4" t="n">
-        <v>2368146.764323771</v>
+        <v>3306847.882341385</v>
       </c>
       <c r="G4" t="n">
-        <v>2413688.048253</v>
+        <v>3370441.11084795</v>
       </c>
       <c r="H4" t="n">
-        <v>2459229.332182378</v>
+        <v>3434034.339354038</v>
       </c>
       <c r="I4" t="n">
-        <v>2504770.616111726</v>
+        <v>3497627.567860603</v>
       </c>
       <c r="J4" t="n">
-        <v>2550311.900040925</v>
+        <v>3561220.796367645</v>
       </c>
       <c r="K4" t="n">
-        <v>2595853.183970302</v>
+        <v>3624814.024873734</v>
       </c>
       <c r="L4" t="n">
-        <v>2641394.467899561</v>
+        <v>3688407.253380775</v>
       </c>
       <c r="M4" t="n">
-        <v>2686935.751828849</v>
+        <v>3752000.481886864</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199689.5101782382</v>
+        <v>18789471.36868143</v>
       </c>
       <c r="C5" t="n">
-        <v>203849.7083069608</v>
+        <v>19122205.46636569</v>
       </c>
       <c r="D5" t="n">
-        <v>208009.9064356685</v>
+        <v>19449725.06179143</v>
       </c>
       <c r="E5" t="n">
-        <v>212170.1045643836</v>
+        <v>19786680.47570527</v>
       </c>
       <c r="F5" t="n">
-        <v>216330.3026930988</v>
+        <v>20112282.17977123</v>
       </c>
       <c r="G5" t="n">
-        <v>220490.5008218214</v>
+        <v>20450183.64993462</v>
       </c>
       <c r="H5" t="n">
-        <v>224650.6989505291</v>
+        <v>20775284.88021411</v>
       </c>
       <c r="I5" t="n">
-        <v>228810.8970792443</v>
+        <v>21113202.69049929</v>
       </c>
       <c r="J5" t="n">
-        <v>232971.0952079445</v>
+        <v>21438158.84444188</v>
       </c>
       <c r="K5" t="n">
-        <v>237131.2933366671</v>
+        <v>21778565.65375</v>
       </c>
       <c r="L5" t="n">
-        <v>241291.4914653823</v>
+        <v>22101864.96932232</v>
       </c>
       <c r="M5" t="n">
-        <v>245451.6895941049</v>
+        <v>22439157.86736077</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8753702.785299629</v>
+        <v>3610422.871658437</v>
       </c>
       <c r="C6" t="n">
-        <v>8936071.593327045</v>
+        <v>3767831.952697098</v>
       </c>
       <c r="D6" t="n">
-        <v>9118440.401354015</v>
+        <v>3813949.130977735</v>
       </c>
       <c r="E6" t="n">
-        <v>9300809.209380925</v>
+        <v>4429940.135157898</v>
       </c>
       <c r="F6" t="n">
-        <v>9483178.017408371</v>
+        <v>4078101.872589424</v>
       </c>
       <c r="G6" t="n">
-        <v>9665546.825435042</v>
+        <v>4711442.605869226</v>
       </c>
       <c r="H6" t="n">
-        <v>9847915.633462399</v>
+        <v>4705733.158740692</v>
       </c>
       <c r="I6" t="n">
-        <v>10030284.44148907</v>
+        <v>4779574.673047088</v>
       </c>
       <c r="J6" t="n">
-        <v>10212653.24951649</v>
+        <v>5356784.042315327</v>
       </c>
       <c r="K6" t="n">
-        <v>10395022.05754369</v>
+        <v>5450079.454814047</v>
       </c>
       <c r="L6" t="n">
-        <v>10577390.86557063</v>
+        <v>4979155.578378871</v>
       </c>
       <c r="M6" t="n">
-        <v>10759759.67359796</v>
+        <v>5454558.646855377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2972406.359066419</v>
+        <v>4985579.155437469</v>
       </c>
       <c r="C7" t="n">
-        <v>3034331.491546974</v>
+        <v>5089445.387842655</v>
       </c>
       <c r="D7" t="n">
-        <v>3096256.624027528</v>
+        <v>5193311.620246887</v>
       </c>
       <c r="E7" t="n">
-        <v>3158181.75650806</v>
+        <v>5297177.85265255</v>
       </c>
       <c r="F7" t="n">
-        <v>3220106.888988644</v>
+        <v>5401044.085057259</v>
       </c>
       <c r="G7" t="n">
-        <v>3282032.021469161</v>
+        <v>5504910.317462444</v>
       </c>
       <c r="H7" t="n">
-        <v>3343957.153949678</v>
+        <v>5608776.549866676</v>
       </c>
       <c r="I7" t="n">
-        <v>3405882.286430255</v>
+        <v>5712642.782271862</v>
       </c>
       <c r="J7" t="n">
-        <v>3467807.418910846</v>
+        <v>5816509.014676571</v>
       </c>
       <c r="K7" t="n">
-        <v>3529732.551391378</v>
+        <v>5920375.247081757</v>
       </c>
       <c r="L7" t="n">
-        <v>3591657.683871925</v>
+        <v>6024241.479486942</v>
       </c>
       <c r="M7" t="n">
-        <v>3653582.816352472</v>
+        <v>6128107.711891174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1431353.120308153</v>
+        <v>18112021.55923866</v>
       </c>
       <c r="C8" t="n">
-        <v>1457327.066507749</v>
+        <v>21888875.58195828</v>
       </c>
       <c r="D8" t="n">
-        <v>1483301.011376169</v>
+        <v>21442839.07263443</v>
       </c>
       <c r="E8" t="n">
-        <v>1509274.954917092</v>
+        <v>17424443.70293033</v>
       </c>
       <c r="F8" t="n">
-        <v>1535248.897134297</v>
+        <v>19627347.25207026</v>
       </c>
       <c r="G8" t="n">
-        <v>1561222.838031597</v>
+        <v>19242451.72714481</v>
       </c>
       <c r="H8" t="n">
-        <v>1587196.777612999</v>
+        <v>18192723.38456462</v>
       </c>
       <c r="I8" t="n">
-        <v>1613170.715882435</v>
+        <v>18686141.10981227</v>
       </c>
       <c r="J8" t="n">
-        <v>1639144.652843997</v>
+        <v>18804733.7639541</v>
       </c>
       <c r="K8" t="n">
-        <v>1665118.588501766</v>
+        <v>21066559.33469286</v>
       </c>
       <c r="L8" t="n">
-        <v>1691092.522860043</v>
+        <v>20291051.66046838</v>
       </c>
       <c r="M8" t="n">
-        <v>1717066.455923051</v>
+        <v>20248233.20943606</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2522433.907248296</v>
+        <v>27474047.31479526</v>
       </c>
       <c r="C9" t="n">
-        <v>1968301.57823623</v>
+        <v>27774574.39924848</v>
       </c>
       <c r="D9" t="n">
-        <v>1766917.524255693</v>
+        <v>28202647.6740036</v>
       </c>
       <c r="E9" t="n">
-        <v>1545291.543178827</v>
+        <v>28695876.29466963</v>
       </c>
       <c r="F9" t="n">
-        <v>1448272.654927291</v>
+        <v>29222388.69347537</v>
       </c>
       <c r="G9" t="n">
-        <v>1396090.885778271</v>
+        <v>29765903.68618655</v>
       </c>
       <c r="H9" t="n">
-        <v>1325340.938552327</v>
+        <v>30318104.23731947</v>
       </c>
       <c r="I9" t="n">
-        <v>1389261.527334496</v>
+        <v>30874741.69528615</v>
       </c>
       <c r="J9" t="n">
-        <v>1245110.330298103</v>
+        <v>31433645.6905663</v>
       </c>
       <c r="K9" t="n">
-        <v>1316397.146349899</v>
+        <v>31993707.51755047</v>
       </c>
       <c r="L9" t="n">
-        <v>1342110.703088678</v>
+        <v>32554360.80810344</v>
       </c>
       <c r="M9" t="n">
-        <v>1294744.517698519</v>
+        <v>33115316.24028528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4632190.136033058</v>
+        <v>4961747.183642149</v>
       </c>
       <c r="C10" t="n">
-        <v>4700322.515020937</v>
+        <v>5065116.916635036</v>
       </c>
       <c r="D10" t="n">
-        <v>4768454.894008726</v>
+        <v>5168486.649627686</v>
       </c>
       <c r="E10" t="n">
-        <v>4836587.272996485</v>
+        <v>5271856.382619858</v>
       </c>
       <c r="F10" t="n">
-        <v>4904719.651984334</v>
+        <v>5375226.115612507</v>
       </c>
       <c r="G10" t="n">
-        <v>4972852.030972093</v>
+        <v>5478595.848604918</v>
       </c>
       <c r="H10" t="n">
-        <v>5040984.409959853</v>
+        <v>5581965.581597805</v>
       </c>
       <c r="I10" t="n">
-        <v>5109116.788947701</v>
+        <v>5685335.314590216</v>
       </c>
       <c r="J10" t="n">
-        <v>5177249.167935431</v>
+        <v>5788705.047582626</v>
       </c>
       <c r="K10" t="n">
-        <v>5245381.54692322</v>
+        <v>5892074.780575514</v>
       </c>
       <c r="L10" t="n">
-        <v>5313513.92591095</v>
+        <v>5995444.513567686</v>
       </c>
       <c r="M10" t="n">
-        <v>5381646.304898649</v>
+        <v>6098814.246560335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3889065.703404248</v>
+        <v>9171671.36177516</v>
       </c>
       <c r="C11" t="n">
-        <v>3970087.905558467</v>
+        <v>9429179.692261815</v>
       </c>
       <c r="D11" t="n">
-        <v>4051110.107712865</v>
+        <v>9686111.198025227</v>
       </c>
       <c r="E11" t="n">
-        <v>4132132.309867129</v>
+        <v>9943255.077826858</v>
       </c>
       <c r="F11" t="n">
-        <v>4213154.512021273</v>
+        <v>10200676.36496007</v>
       </c>
       <c r="G11" t="n">
-        <v>4294176.714175582</v>
+        <v>10457493.22347784</v>
       </c>
       <c r="H11" t="n">
-        <v>4375198.916329861</v>
+        <v>10714896.93509483</v>
       </c>
       <c r="I11" t="n">
-        <v>4456221.11848411</v>
+        <v>10972072.29446161</v>
       </c>
       <c r="J11" t="n">
-        <v>4537243.320638388</v>
+        <v>11228989.21894228</v>
       </c>
       <c r="K11" t="n">
-        <v>4618265.522792637</v>
+        <v>11486505.76801062</v>
       </c>
       <c r="L11" t="n">
-        <v>4699287.724946916</v>
+        <v>11743429.77617717</v>
       </c>
       <c r="M11" t="n">
-        <v>4780309.927101076</v>
+        <v>12000601.4815824</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1837312.532016536</v>
+        <v>40762684.4724656</v>
       </c>
       <c r="C12" t="n">
-        <v>1837312.529132667</v>
+        <v>41170950.11981967</v>
       </c>
       <c r="D12" t="n">
-        <v>1837312.526248799</v>
+        <v>41805679.23361763</v>
       </c>
       <c r="E12" t="n">
-        <v>1837312.523364927</v>
+        <v>42069718.87646836</v>
       </c>
       <c r="F12" t="n">
-        <v>1837312.520481058</v>
+        <v>42580394.33652923</v>
       </c>
       <c r="G12" t="n">
-        <v>1837312.517597188</v>
+        <v>43272420.01796892</v>
       </c>
       <c r="H12" t="n">
-        <v>1837312.514713318</v>
+        <v>43504948.80106995</v>
       </c>
       <c r="I12" t="n">
-        <v>1837312.511829449</v>
+        <v>44237858.49752009</v>
       </c>
       <c r="J12" t="n">
-        <v>1837312.508945575</v>
+        <v>44647211.56006196</v>
       </c>
       <c r="K12" t="n">
-        <v>1837312.506061709</v>
+        <v>45291313.69754395</v>
       </c>
       <c r="L12" t="n">
-        <v>1837312.503177837</v>
+        <v>49146245.52377164</v>
       </c>
       <c r="M12" t="n">
-        <v>1837312.500293968</v>
+        <v>52737075.65547284</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728905.926107049</v>
+        <v>41071060.08897424</v>
       </c>
       <c r="C13" t="n">
-        <v>748289.9039190412</v>
+        <v>41449161.15562212</v>
       </c>
       <c r="D13" t="n">
-        <v>767672.9451515675</v>
+        <v>41828073.28845328</v>
       </c>
       <c r="E13" t="n">
-        <v>787055.0519310832</v>
+        <v>42207787.83125573</v>
       </c>
       <c r="F13" t="n">
-        <v>806436.2263787985</v>
+        <v>42588296.22020072</v>
       </c>
       <c r="G13" t="n">
-        <v>825816.4706113338</v>
+        <v>42969589.98285913</v>
       </c>
       <c r="H13" t="n">
-        <v>845195.7867405415</v>
+        <v>43351660.73722762</v>
       </c>
       <c r="I13" t="n">
-        <v>864574.1768735647</v>
+        <v>43734500.19075543</v>
       </c>
       <c r="J13" t="n">
-        <v>883951.6431125402</v>
+        <v>44118100.13939983</v>
       </c>
       <c r="K13" t="n">
-        <v>903328.1875545979</v>
+        <v>44502452.46667606</v>
       </c>
       <c r="L13" t="n">
-        <v>922703.8122929335</v>
+        <v>44887549.1427201</v>
       </c>
       <c r="M13" t="n">
-        <v>942078.5194149017</v>
+        <v>45273382.22337162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.099172065121749e-307</v>
+        <v>862635.1834189612</v>
       </c>
       <c r="C14" t="n">
-        <v>1.122071483145119e-307</v>
+        <v>834544.1527105104</v>
       </c>
       <c r="D14" t="n">
-        <v>1.144970901168488e-307</v>
+        <v>778972.3363206554</v>
       </c>
       <c r="E14" t="n">
-        <v>1.167870319191858e-307</v>
+        <v>715893.9986488298</v>
       </c>
       <c r="F14" t="n">
-        <v>1.190769737215228e-307</v>
+        <v>657361.6255102102</v>
       </c>
       <c r="G14" t="n">
-        <v>1.213669155238598e-307</v>
+        <v>608953.7713369466</v>
       </c>
       <c r="H14" t="n">
-        <v>1.236568573261967e-307</v>
+        <v>572110.6389443614</v>
       </c>
       <c r="I14" t="n">
-        <v>1.259467991285337e-307</v>
+        <v>546059.6961721443</v>
       </c>
       <c r="J14" t="n">
-        <v>1.282367409308707e-307</v>
+        <v>529091.6155949682</v>
       </c>
       <c r="K14" t="n">
-        <v>1.305266827332076e-307</v>
+        <v>519292.7430013716</v>
       </c>
       <c r="L14" t="n">
-        <v>1.328166245355447e-307</v>
+        <v>514907.6054140851</v>
       </c>
       <c r="M14" t="n">
-        <v>1.351065663378816e-307</v>
+        <v>514479.4075818993</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>468310.0233545601</v>
+        <v>3465688.202139318</v>
       </c>
       <c r="C15" t="n">
-        <v>482215.537653653</v>
+        <v>3537890.039683908</v>
       </c>
       <c r="D15" t="n">
-        <v>505033.8999343328</v>
+        <v>3610091.877228409</v>
       </c>
       <c r="E15" t="n">
-        <v>504562.1069902536</v>
+        <v>3682293.714773029</v>
       </c>
       <c r="F15" t="n">
-        <v>537207.4151042961</v>
+        <v>3754495.552317649</v>
       </c>
       <c r="G15" t="n">
-        <v>523024.3735191096</v>
+        <v>3826697.38986212</v>
       </c>
       <c r="H15" t="n">
-        <v>534942.5523537528</v>
+        <v>3898899.22740683</v>
       </c>
       <c r="I15" t="n">
-        <v>547383.8489021603</v>
+        <v>3971101.064951271</v>
       </c>
       <c r="J15" t="n">
-        <v>558377.8120395131</v>
+        <v>4043302.902495921</v>
       </c>
       <c r="K15" t="n">
-        <v>571393.5689029954</v>
+        <v>4115504.740040481</v>
       </c>
       <c r="L15" t="n">
-        <v>581786.8776396923</v>
+        <v>4187706.577585012</v>
       </c>
       <c r="M15" t="n">
-        <v>593596.2308303155</v>
+        <v>4259908.415129632</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>469476.1776241995</v>
+        <v>10032196.42976636</v>
       </c>
       <c r="C16" t="n">
-        <v>482060.3603520691</v>
+        <v>10245690.74037299</v>
       </c>
       <c r="D16" t="n">
-        <v>505779.3153947406</v>
+        <v>10459184.60507381</v>
       </c>
       <c r="E16" t="n">
-        <v>509204.6436183657</v>
+        <v>10672678.02453259</v>
       </c>
       <c r="F16" t="n">
-        <v>490188.9602976367</v>
+        <v>10886170.99941239</v>
       </c>
       <c r="G16" t="n">
-        <v>497575.4027034044</v>
+        <v>11099663.53037515</v>
       </c>
       <c r="H16" t="n">
-        <v>506910.9066479523</v>
+        <v>11313155.61808154</v>
       </c>
       <c r="I16" t="n">
-        <v>528070.2394867577</v>
+        <v>11526647.2631917</v>
       </c>
       <c r="J16" t="n">
-        <v>534283.1838125009</v>
+        <v>11740138.4663648</v>
       </c>
       <c r="K16" t="n">
-        <v>532605.2784375213</v>
+        <v>11953629.22825849</v>
       </c>
       <c r="L16" t="n">
-        <v>551872.6037590113</v>
+        <v>12167119.54952994</v>
       </c>
       <c r="M16" t="n">
-        <v>569399.6469553653</v>
+        <v>12380609.43083498</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1951070.027236223</v>
+        <v>4941526.895254433</v>
       </c>
       <c r="C17" t="n">
-        <v>1991717.319470286</v>
+        <v>5060617.243660763</v>
       </c>
       <c r="D17" t="n">
-        <v>2032364.611704469</v>
+        <v>5179698.021509111</v>
       </c>
       <c r="E17" t="n">
-        <v>2073011.903938532</v>
+        <v>5298769.265392661</v>
       </c>
       <c r="F17" t="n">
-        <v>2113659.196172476</v>
+        <v>5417831.011764199</v>
       </c>
       <c r="G17" t="n">
-        <v>2154306.488406897</v>
+        <v>5536883.296937615</v>
       </c>
       <c r="H17" t="n">
-        <v>2194953.780640841</v>
+        <v>5655926.157087535</v>
       </c>
       <c r="I17" t="n">
-        <v>2235601.072874904</v>
+        <v>5774959.628250659</v>
       </c>
       <c r="J17" t="n">
-        <v>2276248.365108967</v>
+        <v>5893983.746325493</v>
       </c>
       <c r="K17" t="n">
-        <v>2316895.657342911</v>
+        <v>6012998.547073871</v>
       </c>
       <c r="L17" t="n">
-        <v>2357542.949577332</v>
+        <v>6132004.066120327</v>
       </c>
       <c r="M17" t="n">
-        <v>2398190.241811156</v>
+        <v>6251000.338953167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1753223.316138744</v>
+        <v>4550574.367802233</v>
       </c>
       <c r="C18" t="n">
-        <v>1789748.801892757</v>
+        <v>4645378.000464946</v>
       </c>
       <c r="D18" t="n">
-        <v>1826274.287644863</v>
+        <v>4740181.633127272</v>
       </c>
       <c r="E18" t="n">
-        <v>1862799.773397446</v>
+        <v>4834985.265790254</v>
       </c>
       <c r="F18" t="n">
-        <v>1899325.25915122</v>
+        <v>4929788.89845264</v>
       </c>
       <c r="G18" t="n">
-        <v>1935850.744904041</v>
+        <v>5024592.531115294</v>
       </c>
       <c r="H18" t="n">
-        <v>1972376.230656624</v>
+        <v>5119396.163777649</v>
       </c>
       <c r="I18" t="n">
-        <v>2008901.716409683</v>
+        <v>5214199.796440125</v>
       </c>
       <c r="J18" t="n">
-        <v>2045427.202162027</v>
+        <v>5309003.429102778</v>
       </c>
       <c r="K18" t="n">
-        <v>2081952.687915087</v>
+        <v>5403807.061765432</v>
       </c>
       <c r="L18" t="n">
-        <v>2118478.173667431</v>
+        <v>5498610.694427907</v>
       </c>
       <c r="M18" t="n">
-        <v>2155003.659420729</v>
+        <v>5593414.327090442</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69203.78512838483</v>
+        <v>5398569.216879845</v>
       </c>
       <c r="C19" t="n">
-        <v>75283.12779302895</v>
+        <v>5424568.694692373</v>
       </c>
       <c r="D19" t="n">
-        <v>83208.45351138711</v>
+        <v>5450428.684063911</v>
       </c>
       <c r="E19" t="n">
-        <v>62472.82079172134</v>
+        <v>5476150.277991533</v>
       </c>
       <c r="F19" t="n">
-        <v>60500.89087577164</v>
+        <v>5501734.58692503</v>
       </c>
       <c r="G19" t="n">
-        <v>72464.28237828612</v>
+        <v>5527182.73847127</v>
       </c>
       <c r="H19" t="n">
-        <v>55089.62695331872</v>
+        <v>5552495.877100468</v>
       </c>
       <c r="I19" t="n">
-        <v>47336.12528643012</v>
+        <v>5577675.163845539</v>
       </c>
       <c r="J19" t="n">
-        <v>57842.64785033464</v>
+        <v>5602721.775996447</v>
       </c>
       <c r="K19" t="n">
-        <v>49783.35228429735</v>
+        <v>5627636.906793594</v>
       </c>
       <c r="L19" t="n">
-        <v>35417.59670358896</v>
+        <v>5652421.765118361</v>
       </c>
       <c r="M19" t="n">
-        <v>41462.94460980594</v>
+        <v>5677077.575176716</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2033351.090320929</v>
+        <v>2975010.610936237</v>
       </c>
       <c r="C20" t="n">
-        <v>2013659.601417378</v>
+        <v>2990412.38992092</v>
       </c>
       <c r="D20" t="n">
-        <v>2013229.621224449</v>
+        <v>3006003.002261577</v>
       </c>
       <c r="E20" t="n">
-        <v>2023181.52137487</v>
+        <v>3021773.813994493</v>
       </c>
       <c r="F20" t="n">
-        <v>2020406.164342076</v>
+        <v>3037717.031824484</v>
       </c>
       <c r="G20" t="n">
-        <v>1999205.451074145</v>
+        <v>3053825.960393343</v>
       </c>
       <c r="H20" t="n">
-        <v>1979509.261695566</v>
+        <v>3070095.201614168</v>
       </c>
       <c r="I20" t="n">
-        <v>1979072.630060232</v>
+        <v>3086520.784982208</v>
       </c>
       <c r="J20" t="n">
-        <v>1989025.043435837</v>
+        <v>3103100.22159286</v>
       </c>
       <c r="K20" t="n">
-        <v>1986256.698184065</v>
+        <v>3119832.478823766</v>
       </c>
       <c r="L20" t="n">
-        <v>1965059.812030056</v>
+        <v>3136717.877034485</v>
       </c>
       <c r="M20" t="n">
-        <v>1945358.924530256</v>
+        <v>3153757.913960073</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1123247.415254273</v>
+        <v>3805101.034369454</v>
       </c>
       <c r="C21" t="n">
-        <v>1132423.552374735</v>
+        <v>3735931.498474047</v>
       </c>
       <c r="D21" t="n">
-        <v>1141599.689493068</v>
+        <v>3690631.056303963</v>
       </c>
       <c r="E21" t="n">
-        <v>1150775.826609276</v>
+        <v>3702357.76213336</v>
       </c>
       <c r="F21" t="n">
-        <v>1159951.963723391</v>
+        <v>3780803.392273828</v>
       </c>
       <c r="G21" t="n">
-        <v>1169128.10083542</v>
+        <v>3907696.185708448</v>
       </c>
       <c r="H21" t="n">
-        <v>1178304.237945318</v>
+        <v>4045670.319306433</v>
       </c>
       <c r="I21" t="n">
-        <v>1187480.375053138</v>
+        <v>4154475.711177811</v>
       </c>
       <c r="J21" t="n">
-        <v>1196656.512158841</v>
+        <v>4206222.455458626</v>
       </c>
       <c r="K21" t="n">
-        <v>1205832.649262428</v>
+        <v>4195123.327551216</v>
       </c>
       <c r="L21" t="n">
-        <v>1215008.786363944</v>
+        <v>4139712.795085609</v>
       </c>
       <c r="M21" t="n">
-        <v>1224184.923463374</v>
+        <v>4076649.474868268</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1157994.745638385</v>
+        <v>10757031.79957504</v>
       </c>
       <c r="C22" t="n">
-        <v>1182119.636172518</v>
+        <v>10876333.51056485</v>
       </c>
       <c r="D22" t="n">
-        <v>1206244.526706696</v>
+        <v>11600577.59715678</v>
       </c>
       <c r="E22" t="n">
-        <v>1230369.417240798</v>
+        <v>12379566.5196101</v>
       </c>
       <c r="F22" t="n">
-        <v>1254494.307774946</v>
+        <v>12704196.86601407</v>
       </c>
       <c r="G22" t="n">
-        <v>1278619.198309019</v>
+        <v>12424058.43954539</v>
       </c>
       <c r="H22" t="n">
-        <v>1302744.088843137</v>
+        <v>11903352.58497255</v>
       </c>
       <c r="I22" t="n">
-        <v>1326868.9793773</v>
+        <v>11800048.29989785</v>
       </c>
       <c r="J22" t="n">
-        <v>1350993.869911492</v>
+        <v>12377082.74926033</v>
       </c>
       <c r="K22" t="n">
-        <v>1375118.760445595</v>
+        <v>13206134.60942172</v>
       </c>
       <c r="L22" t="n">
-        <v>1399243.650979728</v>
+        <v>13710553.47823105</v>
       </c>
       <c r="M22" t="n">
-        <v>1423368.541513771</v>
+        <v>13608035.57574759</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>80470.88765392639</v>
+        <v>8575193.738786092</v>
       </c>
       <c r="C23" t="n">
-        <v>82644.82237736136</v>
+        <v>8566776.123750102</v>
       </c>
       <c r="D23" t="n">
-        <v>84319.34817812685</v>
+        <v>8624763.056204842</v>
       </c>
       <c r="E23" t="n">
-        <v>85971.23250765819</v>
+        <v>8700317.022148976</v>
       </c>
       <c r="F23" t="n">
-        <v>87633.14443424903</v>
+        <v>8778938.793612421</v>
       </c>
       <c r="G23" t="n">
-        <v>89290.25484380219</v>
+        <v>8858003.990872163</v>
       </c>
       <c r="H23" t="n">
-        <v>90946.62313925941</v>
+        <v>8937127.414373456</v>
       </c>
       <c r="I23" t="n">
-        <v>92605.92608423159</v>
+        <v>9016259.466068583</v>
       </c>
       <c r="J23" t="n">
-        <v>94262.78960970975</v>
+        <v>9095394.790353412</v>
       </c>
       <c r="K23" t="n">
-        <v>95921.09183002077</v>
+        <v>9174533.173126182</v>
       </c>
       <c r="L23" t="n">
-        <v>97578.74915958568</v>
+        <v>9253674.67251721</v>
       </c>
       <c r="M23" t="n">
-        <v>99325.98161652498</v>
+        <v>9332819.041938547</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8957506.302609682</v>
+        <v>9230538.886670738</v>
       </c>
       <c r="C24" t="n">
-        <v>9004572.022592157</v>
+        <v>9117564.40299423</v>
       </c>
       <c r="D24" t="n">
-        <v>9051631.217220783</v>
+        <v>10575651.00939904</v>
       </c>
       <c r="E24" t="n">
-        <v>9098694.337686896</v>
+        <v>10147085.56017955</v>
       </c>
       <c r="F24" t="n">
-        <v>9145753.753257871</v>
+        <v>9327936.425527841</v>
       </c>
       <c r="G24" t="n">
-        <v>9192819.933936357</v>
+        <v>10441479.53703371</v>
       </c>
       <c r="H24" t="n">
-        <v>9239881.239954174</v>
+        <v>10785815.79255036</v>
       </c>
       <c r="I24" t="n">
-        <v>9286944.973253071</v>
+        <v>10509459.02507824</v>
       </c>
       <c r="J24" t="n">
-        <v>9334008.630622387</v>
+        <v>11453188.44358617</v>
       </c>
       <c r="K24" t="n">
-        <v>9381078.474811196</v>
+        <v>11449015.64104682</v>
       </c>
       <c r="L24" t="n">
-        <v>9428141.357827187</v>
+        <v>11422267.62588188</v>
       </c>
       <c r="M24" t="n">
-        <v>9475201.368632615</v>
+        <v>11611407.67447326</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3013471.574696474</v>
+        <v>5438097.617517596</v>
       </c>
       <c r="C25" t="n">
-        <v>3069766.079962876</v>
+        <v>5535534.907506596</v>
       </c>
       <c r="D25" t="n">
-        <v>3126180.852896787</v>
+        <v>5633298.304285051</v>
       </c>
       <c r="E25" t="n">
-        <v>3182712.164909761</v>
+        <v>5731376.917184781</v>
       </c>
       <c r="F25" t="n">
-        <v>3239356.40300856</v>
+        <v>5829760.21924247</v>
       </c>
       <c r="G25" t="n">
-        <v>3296110.066211559</v>
+        <v>5928438.035053553</v>
       </c>
       <c r="H25" t="n">
-        <v>3352969.762075953</v>
+        <v>6027400.529031383</v>
       </c>
       <c r="I25" t="n">
-        <v>3409932.203332879</v>
+        <v>6126638.194058839</v>
       </c>
       <c r="J25" t="n">
-        <v>3466994.204626784</v>
+        <v>6226141.840518478</v>
       </c>
       <c r="K25" t="n">
-        <v>3524152.679355808</v>
+        <v>6325902.585689677</v>
       </c>
       <c r="L25" t="n">
-        <v>3581404.636610255</v>
+        <v>6425911.843499217</v>
       </c>
       <c r="M25" t="n">
-        <v>3638747.178205762</v>
+        <v>6526161.314614527</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11126676.66530585</v>
+        <v>11241418.12156934</v>
       </c>
       <c r="C26" t="n">
-        <v>11349687.48833442</v>
+        <v>11384631.27669966</v>
       </c>
       <c r="D26" t="n">
-        <v>11572923.77478075</v>
+        <v>11527758.07713258</v>
       </c>
       <c r="E26" t="n">
-        <v>11796376.48658228</v>
+        <v>11670816.51847082</v>
       </c>
       <c r="F26" t="n">
-        <v>12020036.91144943</v>
+        <v>11813830.44274038</v>
       </c>
       <c r="G26" t="n">
-        <v>12243896.63957262</v>
+        <v>11956827.94397283</v>
       </c>
       <c r="H26" t="n">
-        <v>12467956.3629961</v>
+        <v>12099839.49001944</v>
       </c>
       <c r="I26" t="n">
-        <v>12692237.01325512</v>
+        <v>12242895.88589305</v>
       </c>
       <c r="J26" t="n">
-        <v>12916706.75960827</v>
+        <v>12386026.21455097</v>
       </c>
       <c r="K26" t="n">
-        <v>13141242.65641475</v>
+        <v>12529255.89254826</v>
       </c>
       <c r="L26" t="n">
-        <v>13366001.92136002</v>
+        <v>12672604.9703365</v>
       </c>
       <c r="M26" t="n">
-        <v>13590878.21602964</v>
+        <v>12816086.79065967</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15296162.20867828</v>
+        <v>5256487.151011646</v>
       </c>
       <c r="C27" t="n">
-        <v>15686824.60387495</v>
+        <v>5359867.601372838</v>
       </c>
       <c r="D27" t="n">
-        <v>15984475.7626203</v>
+        <v>5463779.893449418</v>
       </c>
       <c r="E27" t="n">
-        <v>16188118.05213606</v>
+        <v>5568168.649389677</v>
       </c>
       <c r="F27" t="n">
-        <v>16335268.98253095</v>
+        <v>5672984.257543609</v>
       </c>
       <c r="G27" t="n">
-        <v>16494639.22210467</v>
+        <v>5778182.272058383</v>
       </c>
       <c r="H27" t="n">
-        <v>16731827.04631722</v>
+        <v>5883722.874991722</v>
       </c>
       <c r="I27" t="n">
-        <v>17074464.34996384</v>
+        <v>5989570.394432247</v>
       </c>
       <c r="J27" t="n">
-        <v>17504032.64335948</v>
+        <v>6095692.872794978</v>
       </c>
       <c r="K27" t="n">
-        <v>17971012.33950406</v>
+        <v>6202061.680068456</v>
       </c>
       <c r="L27" t="n">
-        <v>18417522.90092927</v>
+        <v>6308651.167332202</v>
       </c>
       <c r="M27" t="n">
-        <v>18795526.41903794</v>
+        <v>6415438.356351607</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3560864.359283447</v>
+        <v>13204121.31480169</v>
       </c>
       <c r="C28" t="n">
-        <v>3635049.033432007</v>
+        <v>13431274.42384565</v>
       </c>
       <c r="D28" t="n">
-        <v>3709233.707580566</v>
+        <v>13658430.00731587</v>
       </c>
       <c r="E28" t="n">
-        <v>3783418.381744385</v>
+        <v>13885587.23933923</v>
       </c>
       <c r="F28" t="n">
-        <v>3857603.055892944</v>
+        <v>14112745.20924985</v>
       </c>
       <c r="G28" t="n">
-        <v>3931787.730041504</v>
+        <v>14339902.96842933</v>
       </c>
       <c r="H28" t="n">
-        <v>4005972.404174805</v>
+        <v>14567059.57909489</v>
       </c>
       <c r="I28" t="n">
-        <v>4080157.078338623</v>
+        <v>14794214.16253805</v>
       </c>
       <c r="J28" t="n">
-        <v>4154341.752487183</v>
+        <v>15021365.94431543</v>
       </c>
       <c r="K28" t="n">
-        <v>4228526.426635742</v>
+        <v>15248514.29408681</v>
       </c>
       <c r="L28" t="n">
-        <v>4302711.100814819</v>
+        <v>15475658.75803316</v>
       </c>
       <c r="M28" t="n">
-        <v>4376895.774932861</v>
+        <v>15702799.08220327</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8145645.670200586</v>
+        <v>1737848.255892158</v>
       </c>
       <c r="C29" t="n">
-        <v>8373549.124631643</v>
+        <v>1783872.951164603</v>
       </c>
       <c r="D29" t="n">
-        <v>8601458.264492989</v>
+        <v>1829897.646443725</v>
       </c>
       <c r="E29" t="n">
-        <v>8829373.083930731</v>
+        <v>1875922.341729879</v>
       </c>
       <c r="F29" t="n">
-        <v>9057293.577026844</v>
+        <v>1921947.037023306</v>
       </c>
       <c r="G29" t="n">
-        <v>9285219.737798452</v>
+        <v>1967971.732322931</v>
       </c>
       <c r="H29" t="n">
-        <v>9513151.560201645</v>
+        <v>2013996.427630067</v>
       </c>
       <c r="I29" t="n">
-        <v>9741089.038127899</v>
+        <v>2060021.122943878</v>
       </c>
       <c r="J29" t="n">
-        <v>9969032.165408134</v>
+        <v>2106045.818265319</v>
       </c>
       <c r="K29" t="n">
-        <v>10196980.93581104</v>
+        <v>2152070.513593316</v>
       </c>
       <c r="L29" t="n">
-        <v>10424935.34304357</v>
+        <v>2198095.208928108</v>
       </c>
       <c r="M29" t="n">
-        <v>10652895.38075328</v>
+        <v>2244119.904269934</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>37680813.799716</v>
+        <v>638845.1959338537</v>
       </c>
       <c r="C30" t="n">
-        <v>37942598.3028307</v>
+        <v>652154.4708491492</v>
       </c>
       <c r="D30" t="n">
-        <v>38202828.51535106</v>
+        <v>665463.7457644588</v>
       </c>
       <c r="E30" t="n">
-        <v>38461557.94005108</v>
+        <v>678773.0206797243</v>
       </c>
       <c r="F30" t="n">
-        <v>38718840.26247263</v>
+        <v>692082.2955950344</v>
       </c>
       <c r="G30" t="n">
-        <v>38974729.31014347</v>
+        <v>705391.5705102996</v>
       </c>
       <c r="H30" t="n">
-        <v>39229279.01217723</v>
+        <v>718700.8454255643</v>
       </c>
       <c r="I30" t="n">
-        <v>39482543.35930634</v>
+        <v>732010.1203408744</v>
       </c>
       <c r="J30" t="n">
-        <v>39734576.36437917</v>
+        <v>745319.3952561703</v>
       </c>
       <c r="K30" t="n">
-        <v>39985432.02337718</v>
+        <v>758628.6701714648</v>
       </c>
       <c r="L30" t="n">
-        <v>40235164.27697706</v>
+        <v>771937.94508676</v>
       </c>
       <c r="M30" t="n">
-        <v>40483826.97271299</v>
+        <v>785247.2200020249</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38066987.10853744</v>
+        <v>511975.3672636378</v>
       </c>
       <c r="C31" t="n">
-        <v>38244646.88560665</v>
+        <v>511975.431090576</v>
       </c>
       <c r="D31" t="n">
-        <v>38422547.44478428</v>
+        <v>511975.4801117062</v>
       </c>
       <c r="E31" t="n">
-        <v>38600687.65094364</v>
+        <v>511975.5142869736</v>
       </c>
       <c r="F31" t="n">
-        <v>38779066.37339604</v>
+        <v>511975.5335884575</v>
       </c>
       <c r="G31" t="n">
-        <v>38957682.48595047</v>
+        <v>511975.5380003936</v>
       </c>
       <c r="H31" t="n">
-        <v>39136534.86698329</v>
+        <v>511975.527519188</v>
       </c>
       <c r="I31" t="n">
-        <v>39315622.39951527</v>
+        <v>511975.5021534186</v>
       </c>
       <c r="J31" t="n">
-        <v>39494943.97129965</v>
+        <v>511975.4619238288</v>
       </c>
       <c r="K31" t="n">
-        <v>39674498.47490883</v>
+        <v>511975.4068633109</v>
       </c>
       <c r="L31" t="n">
-        <v>39854284.80783188</v>
+        <v>511975.3370168786</v>
       </c>
       <c r="M31" t="n">
-        <v>40034301.87256908</v>
+        <v>511975.2524416303</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.583522235936767e-308</v>
+        <v>1885616.604993094</v>
       </c>
       <c r="C32" t="n">
-        <v>8.762345615852115e-308</v>
+        <v>1923529.320948213</v>
       </c>
       <c r="D32" t="n">
-        <v>8.941168995767466e-308</v>
+        <v>1961819.209253389</v>
       </c>
       <c r="E32" t="n">
-        <v>9.119992375682816e-308</v>
+        <v>2000444.038546529</v>
       </c>
       <c r="F32" t="n">
-        <v>9.298815755598163e-308</v>
+        <v>2039355.15803092</v>
       </c>
       <c r="G32" t="n">
-        <v>9.477639135513513e-308</v>
+        <v>2078500.873694424</v>
       </c>
       <c r="H32" t="n">
-        <v>9.656462515428862e-308</v>
+        <v>2117829.57434646</v>
       </c>
       <c r="I32" t="n">
-        <v>9.835285895344211e-308</v>
+        <v>2157292.398389053</v>
       </c>
       <c r="J32" t="n">
-        <v>1.001410927525956e-307</v>
+        <v>2196845.299088385</v>
       </c>
       <c r="K32" t="n">
-        <v>1.019293265517491e-307</v>
+        <v>2236450.440845255</v>
       </c>
       <c r="L32" t="n">
-        <v>1.037175603509026e-307</v>
+        <v>2276076.930723317</v>
       </c>
       <c r="M32" t="n">
-        <v>1.055057941500561e-307</v>
+        <v>2315700.949646786</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3628864.365544319</v>
+        <v>2549727.465552226</v>
       </c>
       <c r="C33" t="n">
-        <v>3713645.462661803</v>
+        <v>2610314.893382907</v>
       </c>
       <c r="D33" t="n">
-        <v>3798426.539527297</v>
+        <v>2670901.503870368</v>
       </c>
       <c r="E33" t="n">
-        <v>3883207.592366159</v>
+        <v>2731487.298294246</v>
       </c>
       <c r="F33" t="n">
-        <v>3967988.617454886</v>
+        <v>2792072.277932286</v>
       </c>
       <c r="G33" t="n">
-        <v>4052769.61112833</v>
+        <v>2852656.444060326</v>
       </c>
       <c r="H33" t="n">
-        <v>4137550.569787502</v>
+        <v>2913239.797951937</v>
       </c>
       <c r="I33" t="n">
-        <v>4222331.489907265</v>
+        <v>2973822.340879083</v>
       </c>
       <c r="J33" t="n">
-        <v>4307112.368043661</v>
+        <v>3034404.074111134</v>
       </c>
       <c r="K33" t="n">
-        <v>4391893.200841069</v>
+        <v>3094984.998916239</v>
       </c>
       <c r="L33" t="n">
-        <v>4476673.985039949</v>
+        <v>3155565.116559863</v>
       </c>
       <c r="M33" t="n">
-        <v>4561454.717482328</v>
+        <v>3216144.428305626</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9341881.94415462</v>
+        <v>2758816.592874049</v>
       </c>
       <c r="C34" t="n">
-        <v>9542154.605224252</v>
+        <v>2792672.789649414</v>
       </c>
       <c r="D34" t="n">
-        <v>9742427.176701188</v>
+        <v>2826408.726160547</v>
       </c>
       <c r="E34" t="n">
-        <v>9942699.6586411</v>
+        <v>2860215.871795865</v>
       </c>
       <c r="F34" t="n">
-        <v>10142972.05109227</v>
+        <v>2894014.150631371</v>
       </c>
       <c r="G34" t="n">
-        <v>10343244.35410905</v>
+        <v>2927769.592151606</v>
       </c>
       <c r="H34" t="n">
-        <v>10543516.56774437</v>
+        <v>2961629.074403014</v>
       </c>
       <c r="I34" t="n">
-        <v>10743788.69204879</v>
+        <v>2995337.611955712</v>
       </c>
       <c r="J34" t="n">
-        <v>10944060.72707403</v>
+        <v>3029249.900144646</v>
       </c>
       <c r="K34" t="n">
-        <v>11144332.67287302</v>
+        <v>3062923.158384738</v>
       </c>
       <c r="L34" t="n">
-        <v>11344604.52949691</v>
+        <v>3096873.687378047</v>
       </c>
       <c r="M34" t="n">
-        <v>11544876.29699957</v>
+        <v>3130528.597911338</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4779564.194994204</v>
+        <v>1698667.808418408</v>
       </c>
       <c r="C35" t="n">
-        <v>4898034.051080212</v>
+        <v>1734547.96883785</v>
       </c>
       <c r="D35" t="n">
-        <v>5016502.014108464</v>
+        <v>1770412.695771337</v>
       </c>
       <c r="E35" t="n">
-        <v>5134968.080681473</v>
+        <v>1806262.694987379</v>
       </c>
       <c r="F35" t="n">
-        <v>5253432.248786986</v>
+        <v>1842098.639979921</v>
       </c>
       <c r="G35" t="n">
-        <v>5371894.517833248</v>
+        <v>1877921.173444226</v>
       </c>
       <c r="H35" t="n">
-        <v>5490354.888673998</v>
+        <v>1913730.908685334</v>
       </c>
       <c r="I35" t="n">
-        <v>5608813.363622576</v>
+        <v>1949528.430961944</v>
       </c>
       <c r="J35" t="n">
-        <v>5727269.946456224</v>
+        <v>1985314.298769221</v>
       </c>
       <c r="K35" t="n">
-        <v>5845724.642409101</v>
+        <v>2021089.045062348</v>
       </c>
       <c r="L35" t="n">
-        <v>5964177.458155498</v>
+        <v>2056853.178424723</v>
       </c>
       <c r="M35" t="n">
-        <v>6082628.401781708</v>
+        <v>2092607.184182391</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4454428.39007616</v>
+        <v>1572048.143901844</v>
       </c>
       <c r="C36" t="n">
-        <v>4547228.981536031</v>
+        <v>1593986.851321183</v>
       </c>
       <c r="D36" t="n">
-        <v>4640029.57299602</v>
+        <v>1536991.441287154</v>
       </c>
       <c r="E36" t="n">
-        <v>4732830.16445595</v>
+        <v>1559594.454600637</v>
       </c>
       <c r="F36" t="n">
-        <v>4825630.755915761</v>
+        <v>1663997.248279047</v>
       </c>
       <c r="G36" t="n">
-        <v>4918431.347375572</v>
+        <v>1598614.196528409</v>
       </c>
       <c r="H36" t="n">
-        <v>5011231.938835502</v>
+        <v>1640744.527116108</v>
       </c>
       <c r="I36" t="n">
-        <v>5104032.530295491</v>
+        <v>1719204.996495208</v>
       </c>
       <c r="J36" t="n">
-        <v>5196833.121755421</v>
+        <v>1706014.585799975</v>
       </c>
       <c r="K36" t="n">
-        <v>5289633.713215351</v>
+        <v>1715292.438465181</v>
       </c>
       <c r="L36" t="n">
-        <v>5382434.304675221</v>
+        <v>1759905.688592352</v>
       </c>
       <c r="M36" t="n">
-        <v>5475234.896135151</v>
+        <v>1723183.59570562</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5211004.588636512</v>
+        <v>4527486.964863703</v>
       </c>
       <c r="C37" t="n">
-        <v>5034389.252355746</v>
+        <v>4681123.641022369</v>
       </c>
       <c r="D37" t="n">
-        <v>5153405.837666353</v>
+        <v>4764907.032485679</v>
       </c>
       <c r="E37" t="n">
-        <v>5323736.642757248</v>
+        <v>4830356.648551464</v>
       </c>
       <c r="F37" t="n">
-        <v>5185012.822684889</v>
+        <v>4891658.218618661</v>
       </c>
       <c r="G37" t="n">
-        <v>5083660.857974779</v>
+        <v>4952098.554705873</v>
       </c>
       <c r="H37" t="n">
-        <v>5279963.719886062</v>
+        <v>5012369.958372429</v>
       </c>
       <c r="I37" t="n">
-        <v>5354707.510528791</v>
+        <v>5072609.546982601</v>
       </c>
       <c r="J37" t="n">
-        <v>5164401.473751034</v>
+        <v>5132843.325006306</v>
       </c>
       <c r="K37" t="n">
-        <v>5175089.831566505</v>
+        <v>5193076.067017972</v>
       </c>
       <c r="L37" t="n">
-        <v>5389477.303844776</v>
+        <v>5253308.627852768</v>
       </c>
       <c r="M37" t="n">
-        <v>5347687.402809092</v>
+        <v>5313541.157501101</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4815374.129717231</v>
+        <v>3935274.080606533</v>
       </c>
       <c r="C38" t="n">
-        <v>4915694.424086452</v>
+        <v>3990820.970990038</v>
       </c>
       <c r="D38" t="n">
-        <v>5016014.718455791</v>
+        <v>4046367.861152688</v>
       </c>
       <c r="E38" t="n">
-        <v>5116335.012824774</v>
+        <v>4101914.745905954</v>
       </c>
       <c r="F38" t="n">
-        <v>5216655.307193875</v>
+        <v>4157461.636292416</v>
       </c>
       <c r="G38" t="n">
-        <v>5316975.601562738</v>
+        <v>4213008.519488716</v>
       </c>
       <c r="H38" t="n">
-        <v>5417295.895931959</v>
+        <v>4268555.411341963</v>
       </c>
       <c r="I38" t="n">
-        <v>5517616.190301061</v>
+        <v>4324102.292086313</v>
       </c>
       <c r="J38" t="n">
-        <v>5617936.484670043</v>
+        <v>4379649.179520996</v>
       </c>
       <c r="K38" t="n">
-        <v>5718256.779039502</v>
+        <v>4435196.065818173</v>
       </c>
       <c r="L38" t="n">
-        <v>5818577.073408246</v>
+        <v>4490742.952138096</v>
       </c>
       <c r="M38" t="n">
-        <v>5918897.367777467</v>
+        <v>4546289.839242822</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3203096.050933599</v>
+        <v>5471174.226043675</v>
       </c>
       <c r="C39" t="n">
-        <v>3225841.83174336</v>
+        <v>5575099.425120983</v>
       </c>
       <c r="D39" t="n">
-        <v>3248599.845175028</v>
+        <v>5679028.272029355</v>
       </c>
       <c r="E39" t="n">
-        <v>3271370.06003356</v>
+        <v>5782960.75605827</v>
       </c>
       <c r="F39" t="n">
-        <v>3294152.445204258</v>
+        <v>5886896.866528414</v>
       </c>
       <c r="G39" t="n">
-        <v>3316946.969651222</v>
+        <v>5990836.592791976</v>
       </c>
       <c r="H39" t="n">
-        <v>3339753.602417707</v>
+        <v>6094779.924232522</v>
       </c>
       <c r="I39" t="n">
-        <v>3362572.312626362</v>
+        <v>6198726.850264584</v>
       </c>
       <c r="J39" t="n">
-        <v>3385403.069478393</v>
+        <v>6302677.360333789</v>
       </c>
       <c r="K39" t="n">
-        <v>3408245.84225297</v>
+        <v>6406631.44391698</v>
       </c>
       <c r="L39" t="n">
-        <v>3431100.600308657</v>
+        <v>6510589.090521558</v>
       </c>
       <c r="M39" t="n">
-        <v>3453967.313081503</v>
+        <v>6614550.289685959</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12346633.81338892</v>
+        <v>5305979.545127213</v>
       </c>
       <c r="C40" t="n">
-        <v>12289899.59274678</v>
+        <v>5378865.424946427</v>
       </c>
       <c r="D40" t="n">
-        <v>12304209.54237556</v>
+        <v>5451751.304765761</v>
       </c>
       <c r="E40" t="n">
-        <v>12368690.22504908</v>
+        <v>5524637.18458502</v>
       </c>
       <c r="F40" t="n">
-        <v>12468821.15265724</v>
+        <v>5597523.064404309</v>
       </c>
       <c r="G40" t="n">
-        <v>12593195.0755028</v>
+        <v>5670408.944223583</v>
       </c>
       <c r="H40" t="n">
-        <v>12733706.31095475</v>
+        <v>5743294.824042797</v>
       </c>
       <c r="I40" t="n">
-        <v>12885980.25620089</v>
+        <v>5816180.703862071</v>
       </c>
       <c r="J40" t="n">
-        <v>13047258.69122119</v>
+        <v>5889066.5836813</v>
       </c>
       <c r="K40" t="n">
-        <v>13214376.50146408</v>
+        <v>5961952.463500544</v>
       </c>
       <c r="L40" t="n">
-        <v>13384709.38845077</v>
+        <v>6034838.343319923</v>
       </c>
       <c r="M40" t="n">
-        <v>13557628.40071146</v>
+        <v>6107724.223139063</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8040608.145224239</v>
+        <v>3194336.041787726</v>
       </c>
       <c r="C41" t="n">
-        <v>8111543.68167758</v>
+        <v>3315502.468716873</v>
       </c>
       <c r="D41" t="n">
-        <v>8305490.928755867</v>
+        <v>3283154.581437266</v>
       </c>
       <c r="E41" t="n">
-        <v>8471063.192602493</v>
+        <v>3060444.348228977</v>
       </c>
       <c r="F41" t="n">
-        <v>8473931.576247144</v>
+        <v>3261201.291126714</v>
       </c>
       <c r="G41" t="n">
-        <v>8389803.723948447</v>
+        <v>3498423.540015122</v>
       </c>
       <c r="H41" t="n">
-        <v>8396474.62245702</v>
+        <v>3507576.073094033</v>
       </c>
       <c r="I41" t="n">
-        <v>8551612.606739141</v>
+        <v>3316853.978376758</v>
       </c>
       <c r="J41" t="n">
-        <v>8751808.672692042</v>
+        <v>3325881.205309221</v>
       </c>
       <c r="K41" t="n">
-        <v>8826562.496633256</v>
+        <v>3651981.70722188</v>
       </c>
       <c r="L41" t="n">
-        <v>8756382.688834144</v>
+        <v>3701984.228110344</v>
       </c>
       <c r="M41" t="n">
-        <v>8708751.654929198</v>
+        <v>3602102.24231881</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10263323.89930734</v>
+        <v>4089655.456072954</v>
       </c>
       <c r="C42" t="n">
-        <v>10477143.14720973</v>
+        <v>4138889.324081019</v>
       </c>
       <c r="D42" t="n">
-        <v>10690962.3951118</v>
+        <v>4188123.192089086</v>
       </c>
       <c r="E42" t="n">
-        <v>10904781.6430141</v>
+        <v>4237357.06009713</v>
       </c>
       <c r="F42" t="n">
-        <v>11118600.89091614</v>
+        <v>4286590.9281052</v>
       </c>
       <c r="G42" t="n">
-        <v>11332420.13881841</v>
+        <v>4335824.796113272</v>
       </c>
       <c r="H42" t="n">
-        <v>11546239.38672075</v>
+        <v>4385058.664121326</v>
       </c>
       <c r="I42" t="n">
-        <v>11760058.63462311</v>
+        <v>4434292.532129405</v>
       </c>
       <c r="J42" t="n">
-        <v>11973877.88252518</v>
+        <v>4483526.40013746</v>
       </c>
       <c r="K42" t="n">
-        <v>12187697.13042736</v>
+        <v>4532760.268145511</v>
       </c>
       <c r="L42" t="n">
-        <v>12401516.37832966</v>
+        <v>4581994.136153579</v>
       </c>
       <c r="M42" t="n">
-        <v>12615335.62623188</v>
+        <v>4631228.004161673</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6013842.561585605</v>
+        <v>3075901.576634739</v>
       </c>
       <c r="C43" t="n">
-        <v>6083838.880702496</v>
+        <v>3097048.575353522</v>
       </c>
       <c r="D43" t="n">
-        <v>6153833.810757816</v>
+        <v>3116779.782703215</v>
       </c>
       <c r="E43" t="n">
-        <v>6223827.362238705</v>
+        <v>3138467.568763966</v>
       </c>
       <c r="F43" t="n">
-        <v>6293819.545825005</v>
+        <v>3162713.234934835</v>
       </c>
       <c r="G43" t="n">
-        <v>6363810.372386187</v>
+        <v>3186386.57525061</v>
       </c>
       <c r="H43" t="n">
-        <v>6433799.852980912</v>
+        <v>3207579.897841023</v>
       </c>
       <c r="I43" t="n">
-        <v>6503787.998855412</v>
+        <v>3228623.91756856</v>
       </c>
       <c r="J43" t="n">
-        <v>6573774.821441114</v>
+        <v>3252387.141384216</v>
       </c>
       <c r="K43" t="n">
-        <v>6643760.332353592</v>
+        <v>3277721.118039757</v>
       </c>
       <c r="L43" t="n">
-        <v>6713744.543390751</v>
+        <v>3301274.971179852</v>
       </c>
       <c r="M43" t="n">
-        <v>6783727.466531575</v>
+        <v>3322799.065287474</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11198452.31309426</v>
+        <v>5795074.510537263</v>
       </c>
       <c r="C44" t="n">
-        <v>11341461.67055094</v>
+        <v>5936188.195778385</v>
       </c>
       <c r="D44" t="n">
-        <v>11484461.08922273</v>
+        <v>6041806.992330492</v>
       </c>
       <c r="E44" t="n">
-        <v>11627492.38711041</v>
+        <v>6147514.458305959</v>
       </c>
       <c r="F44" t="n">
-        <v>11770594.56718829</v>
+        <v>6238955.525899503</v>
       </c>
       <c r="G44" t="n">
-        <v>11913799.34318155</v>
+        <v>6318572.888293631</v>
       </c>
       <c r="H44" t="n">
-        <v>12057127.50280359</v>
+        <v>6404947.536763128</v>
       </c>
       <c r="I44" t="n">
-        <v>12200586.52584177</v>
+        <v>6489457.146464031</v>
       </c>
       <c r="J44" t="n">
-        <v>12344169.72938558</v>
+        <v>6560443.389223747</v>
       </c>
       <c r="K44" t="n">
-        <v>12487857.03647113</v>
+        <v>6634371.075785711</v>
       </c>
       <c r="L44" t="n">
-        <v>12631617.27811268</v>
+        <v>6715906.089015011</v>
       </c>
       <c r="M44" t="n">
-        <v>12775411.76356861</v>
+        <v>6787277.205797099</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5203336.228873372</v>
+        <v>3223695.510001466</v>
       </c>
       <c r="C45" t="n">
-        <v>5267663.10259375</v>
+        <v>3264861.192948537</v>
       </c>
       <c r="D45" t="n">
-        <v>5333800.981525123</v>
+        <v>3306026.875884783</v>
       </c>
       <c r="E45" t="n">
-        <v>5401595.336618334</v>
+        <v>3347192.558810236</v>
       </c>
       <c r="F45" t="n">
-        <v>5470905.097177833</v>
+        <v>3388358.241724908</v>
       </c>
       <c r="G45" t="n">
-        <v>5541601.307649523</v>
+        <v>3429523.924628835</v>
       </c>
       <c r="H45" t="n">
-        <v>5613565.868461967</v>
+        <v>3470689.607521988</v>
       </c>
       <c r="I45" t="n">
-        <v>5686690.458431423</v>
+        <v>3511855.290404482</v>
       </c>
       <c r="J45" t="n">
-        <v>5760875.693359345</v>
+        <v>3553020.973276282</v>
       </c>
       <c r="K45" t="n">
-        <v>5836030.50355202</v>
+        <v>3594186.656137414</v>
       </c>
       <c r="L45" t="n">
-        <v>5912071.645859182</v>
+        <v>3635352.338987904</v>
       </c>
       <c r="M45" t="n">
-        <v>5988923.235027492</v>
+        <v>3676518.021827774</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14279726.04251289</v>
+        <v>2225951.429872097</v>
       </c>
       <c r="C46" t="n">
-        <v>14577220.33506203</v>
+        <v>2234276.202021814</v>
       </c>
       <c r="D46" t="n">
-        <v>14874714.62761497</v>
+        <v>2242601.40715684</v>
       </c>
       <c r="E46" t="n">
-        <v>15172208.92017365</v>
+        <v>2250925.210769258</v>
       </c>
       <c r="F46" t="n">
-        <v>15469703.21272087</v>
+        <v>2259251.040053582</v>
       </c>
       <c r="G46" t="n">
-        <v>15767197.50527191</v>
+        <v>2267574.717273138</v>
       </c>
       <c r="H46" t="n">
-        <v>16064691.79782677</v>
+        <v>2275900.144136087</v>
       </c>
       <c r="I46" t="n">
-        <v>16362186.0903759</v>
+        <v>2284224.6537067</v>
       </c>
       <c r="J46" t="n">
-        <v>16659680.38293076</v>
+        <v>2292549.022817771</v>
       </c>
       <c r="K46" t="n">
-        <v>16957174.6754837</v>
+        <v>2300874.555625951</v>
       </c>
       <c r="L46" t="n">
-        <v>17254668.96803284</v>
+        <v>2309198.187447861</v>
       </c>
       <c r="M46" t="n">
-        <v>17552163.26059151</v>
+        <v>2317523.990426933</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1985464.605128676</v>
+        <v>1611476.869571127</v>
       </c>
       <c r="C47" t="n">
-        <v>2025027.050893307</v>
+        <v>1655526.007213838</v>
       </c>
       <c r="D47" t="n">
-        <v>2061047.66934751</v>
+        <v>1699575.144863747</v>
       </c>
       <c r="E47" t="n">
-        <v>2093995.150442958</v>
+        <v>1743624.282520477</v>
       </c>
       <c r="F47" t="n">
-        <v>2124261.537981376</v>
+        <v>1787673.420183733</v>
       </c>
       <c r="G47" t="n">
-        <v>2152531.804507896</v>
+        <v>1831722.55785308</v>
       </c>
       <c r="H47" t="n">
-        <v>2179306.335912883</v>
+        <v>1875771.695528254</v>
       </c>
       <c r="I47" t="n">
-        <v>2204854.876843244</v>
+        <v>1919820.833208866</v>
       </c>
       <c r="J47" t="n">
-        <v>2229692.61060819</v>
+        <v>1963869.970894553</v>
       </c>
       <c r="K47" t="n">
-        <v>2254217.711276829</v>
+        <v>2007919.108584985</v>
       </c>
       <c r="L47" t="n">
-        <v>2278525.469659239</v>
+        <v>2051968.246279746</v>
       </c>
       <c r="M47" t="n">
-        <v>2302925.730748385</v>
+        <v>2096017.383978553</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>613193.6099170446</v>
+        <v>5135058.976650745</v>
       </c>
       <c r="C48" t="n">
-        <v>625968.4767899513</v>
+        <v>4994275.90579477</v>
       </c>
       <c r="D48" t="n">
-        <v>638743.3436632752</v>
+        <v>5187732.280290365</v>
       </c>
       <c r="E48" t="n">
-        <v>651518.2105361223</v>
+        <v>5395313.298760161</v>
       </c>
       <c r="F48" t="n">
-        <v>664293.0774099231</v>
+        <v>5391187.836517297</v>
       </c>
       <c r="G48" t="n">
-        <v>677067.9442842007</v>
+        <v>5472298.18598038</v>
       </c>
       <c r="H48" t="n">
-        <v>689842.8111566305</v>
+        <v>5425942.846032165</v>
       </c>
       <c r="I48" t="n">
-        <v>702617.6780304313</v>
+        <v>5569994.018094078</v>
       </c>
       <c r="J48" t="n">
-        <v>715392.5449028611</v>
+        <v>5750583.545088537</v>
       </c>
       <c r="K48" t="n">
-        <v>728167.411775589</v>
+        <v>5905073.729015</v>
       </c>
       <c r="L48" t="n">
-        <v>740942.2786499858</v>
+        <v>5838838.013241515</v>
       </c>
       <c r="M48" t="n">
-        <v>753717.1455222964</v>
+        <v>5906168.149291933</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>787188.7854695413</v>
+        <v>618114.983503283</v>
       </c>
       <c r="C49" t="n">
-        <v>798165.1447112504</v>
+        <v>625217.5128024546</v>
       </c>
       <c r="D49" t="n">
-        <v>809141.5028442238</v>
+        <v>633684.152394312</v>
       </c>
       <c r="E49" t="n">
-        <v>820117.859875489</v>
+        <v>644958.9704896025</v>
       </c>
       <c r="F49" t="n">
-        <v>831094.2158121467</v>
+        <v>660345.3247940498</v>
       </c>
       <c r="G49" t="n">
-        <v>842070.5706614349</v>
+        <v>680016.7814929313</v>
       </c>
       <c r="H49" t="n">
-        <v>853046.9244307298</v>
+        <v>702312.8425342827</v>
       </c>
       <c r="I49" t="n">
-        <v>864023.2771275453</v>
+        <v>724099.9685292901</v>
       </c>
       <c r="J49" t="n">
-        <v>874999.6287595145</v>
+        <v>742357.2242591819</v>
       </c>
       <c r="K49" t="n">
-        <v>885975.9793343358</v>
+        <v>755864.815510727</v>
       </c>
       <c r="L49" t="n">
-        <v>896952.3288599625</v>
+        <v>765485.3308453038</v>
       </c>
       <c r="M49" t="n">
-        <v>907928.6773443278</v>
+        <v>772978.5041424301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1920391.596878804</v>
+        <v>2575234.204833806</v>
       </c>
       <c r="C50" t="n">
-        <v>1965042.564896055</v>
+        <v>2632126.287892222</v>
       </c>
       <c r="D50" t="n">
-        <v>2009707.859065056</v>
+        <v>2689056.076712191</v>
       </c>
       <c r="E50" t="n">
-        <v>2054374.562615164</v>
+        <v>2745942.347198546</v>
       </c>
       <c r="F50" t="n">
-        <v>2099025.257763304</v>
+        <v>2802803.264046133</v>
       </c>
       <c r="G50" t="n">
-        <v>2143682.803740725</v>
+        <v>2859714.776301026</v>
       </c>
       <c r="H50" t="n">
-        <v>2188351.561715998</v>
+        <v>2916567.714793205</v>
       </c>
       <c r="I50" t="n">
-        <v>2233006.213172317</v>
+        <v>2973406.868657589</v>
       </c>
       <c r="J50" t="n">
-        <v>2277656.813869745</v>
+        <v>3030325.029852331</v>
       </c>
       <c r="K50" t="n">
-        <v>2322322.96293354</v>
+        <v>3087097.197851002</v>
       </c>
       <c r="L50" t="n">
-        <v>2366983.427809283</v>
+        <v>3143982.219524145</v>
       </c>
       <c r="M50" t="n">
-        <v>2411630.705556288</v>
+        <v>3200835.525708497</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2288509.04100769</v>
+        <v>2316003.037753552</v>
       </c>
       <c r="C51" t="n">
-        <v>2343762.102290951</v>
+        <v>2375402.702278525</v>
       </c>
       <c r="D51" t="n">
-        <v>2397170.763285421</v>
+        <v>2434802.366807371</v>
       </c>
       <c r="E51" t="n">
-        <v>2449131.568650037</v>
+        <v>2494202.031340122</v>
       </c>
       <c r="F51" t="n">
-        <v>2499962.335479617</v>
+        <v>2553601.695876673</v>
       </c>
       <c r="G51" t="n">
-        <v>2549917.229585707</v>
+        <v>2613001.360417143</v>
       </c>
       <c r="H51" t="n">
-        <v>2599198.994988643</v>
+        <v>2672401.024961472</v>
       </c>
       <c r="I51" t="n">
-        <v>2647968.87251769</v>
+        <v>2731800.68950972</v>
       </c>
       <c r="J51" t="n">
-        <v>2696354.642351411</v>
+        <v>2791200.354061753</v>
       </c>
       <c r="K51" t="n">
-        <v>2744457.143389434</v>
+        <v>2850600.01861769</v>
       </c>
       <c r="L51" t="n">
-        <v>2792355.555899911</v>
+        <v>2909999.68317759</v>
       </c>
       <c r="M51" t="n">
-        <v>2840111.679997936</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2878008.776507236</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2953368.035342418</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3027957.894305795</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3101828.965221718</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3175028.530622564</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3247600.762752876</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3319586.928166606</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3391025.578866087</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3461952.730868019</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3532402.031022698</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3602404.912859879</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3671990.742183015</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1639325.748894215</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1673478.368662745</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1707630.988431722</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1741783.608200014</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1775936.227968246</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1810088.847737029</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1844241.467505887</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1878394.087274626</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1912546.707043141</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1946699.32681191</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1980851.946580485</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2015004.56634897</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1564340.833918061</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1536313.80420189</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1634489.570259131</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1583348.943362681</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1658774.102135954</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1654258.073792933</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1665717.004488705</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1732373.190723341</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1688702.630389221</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1787147.861569639</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1739978.043842062</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1806048.837368289</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>4573598.513648212</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4630767.863297611</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4688307.532244325</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4745426.785415739</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4802890.401762873</v>
-      </c>
-      <c r="G55" t="n">
-        <v>4860248.922736019</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4917142.546718985</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4974713.80537498</v>
-      </c>
-      <c r="J55" t="n">
-        <v>5032003.024799556</v>
-      </c>
-      <c r="K55" t="n">
-        <v>5089302.996712983</v>
-      </c>
-      <c r="L55" t="n">
-        <v>5146747.255447537</v>
-      </c>
-      <c r="M55" t="n">
-        <v>5203695.847043008</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3923272.298157318</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3979312.956250282</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4036965.210472418</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4120154.761028975</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4142335.753236942</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4237402.495361611</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4269225.383941192</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4334637.144933838</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4406486.521593574</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4433772.596378613</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4529776.250319257</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4554364.548776682</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5428672.077999007</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5533986.204584161</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5639301.964652829</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5744619.354613658</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5849938.370883446</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5955259.009886445</v>
-      </c>
-      <c r="H57" t="n">
-        <v>6060581.268054809</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6165905.141828896</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6271230.627656737</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6376557.721993713</v>
-      </c>
-      <c r="L57" t="n">
-        <v>6481886.421303689</v>
-      </c>
-      <c r="M57" t="n">
-        <v>6587216.72205794</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5194075.93127289</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5263723.126437724</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5332919.912142482</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5401761.128769305</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5470439.302390963</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5539191.807587415</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5608235.635941111</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5677707.732696112</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5747627.364730269</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5817890.881323356</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5888300.253794722</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5958617.477910211</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3138245.059291399</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2882364.923627502</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3187494.719026559</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3258994.382515084</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3003759.433779376</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3310090.895845155</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3379727.282235566</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3125168.604117361</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3432672.753856893</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3500443.815301693</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3246592.518527657</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3555240.354262771</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4075847.382907595</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4125766.315730685</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4175672.54445966</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4225587.575720118</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4275503.924282687</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4325409.766279857</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4375327.882072825</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4425240.627269089</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4475148.045980904</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4525067.725534281</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4574976.871164703</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4624887.382445932</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2963498.103872584</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2980116.331610844</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2996781.444497935</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3013475.436186723</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3030135.405133683</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3046816.743098411</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3063549.222016879</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3080259.593220926</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3096961.639242116</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3113720.283854222</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3130482.934697917</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3147215.91022484</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5461151.698759074</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5500355.415686777</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5539707.279348838</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5579196.754085649</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5618810.413028957</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5658533.053498087</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5698348.973867494</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5738243.296458795</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5778203.216851719</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5818219.066711228</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5858285.09416471</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5898399.891368481</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3170712.615554057</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3210392.115459315</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3250071.615364496</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3289751.11526968</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3329430.615174919</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3369110.115080025</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3408789.61498522</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3448469.114890378</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3488148.614795484</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3527828.114700668</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3567507.614605788</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3607187.114510909</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2265063.131586391</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2275115.110944774</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2285028.821421709</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2295016.263182841</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2304932.634897366</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2314881.582986008</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2324793.37518115</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2334703.953803984</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2344545.704058338</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2354472.042927705</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2364410.058873691</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2374352.243370593</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1876160.008717537</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1866762.953462601</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1854428.943977356</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1842205.458805084</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1832154.943511963</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1825528.856584549</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1822960.60426712</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1824642.099214554</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1830470.061756134</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1840159.476308823</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1853327.042301178</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1869549.596429825</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4639070.920258142</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4793272.056443006</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4794810.189036071</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4940409.027508959</v>
-      </c>
-      <c r="F66" t="n">
-        <v>4966985.75096783</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5094947.54146032</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5156948.629617825</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5257837.635096133</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5356206.500327617</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5422978.165307656</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5550805.109576926</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5582674.999283001</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>655518.0022357944</v>
-      </c>
-      <c r="C67" t="n">
-        <v>669847.0851050243</v>
-      </c>
-      <c r="D67" t="n">
-        <v>682745.9098259285</v>
-      </c>
-      <c r="E67" t="n">
-        <v>694525.3465361651</v>
-      </c>
-      <c r="F67" t="n">
-        <v>705473.9943071008</v>
-      </c>
-      <c r="G67" t="n">
-        <v>715844.5916574504</v>
-      </c>
-      <c r="H67" t="n">
-        <v>725849.0018807352</v>
-      </c>
-      <c r="I67" t="n">
-        <v>735658.3863374162</v>
-      </c>
-      <c r="J67" t="n">
-        <v>745406.3016852736</v>
-      </c>
-      <c r="K67" t="n">
-        <v>755193.2416082993</v>
-      </c>
-      <c r="L67" t="n">
-        <v>765091.6857621651</v>
-      </c>
-      <c r="M67" t="n">
-        <v>775151.0882020183</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2554609.043074548</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2594901.545615673</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2635801.447647482</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2677274.104842752</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2719286.848887205</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2761808.874774039</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2804811.134525478</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2848266.236977488</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2892148.353279293</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2936433.127784044</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2981097.594021112</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3026120.095461488</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2230359.717882335</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2290957.389679074</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2351604.354523659</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2412295.042179763</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2473024.128201663</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2533786.52524662</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2594577.374666989</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2655392.038367152</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2716226.090922058</v>
-      </c>
-      <c r="K69" t="n">
-        <v>2777075.311948717</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2837935.678720057</v>
-      </c>
-      <c r="M69" t="n">
-        <v>2898803.359018564</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>2386551.520198703</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2436271.343536139</v>
-      </c>
-      <c r="D70" t="n">
-        <v>2485991.166873693</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2535710.990211129</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2585430.813548625</v>
-      </c>
-      <c r="G70" t="n">
-        <v>2635150.63688612</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2684870.460223615</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2734590.283560991</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2784310.106898606</v>
-      </c>
-      <c r="K70" t="n">
-        <v>2834029.930235982</v>
-      </c>
-      <c r="L70" t="n">
-        <v>2883749.753573537</v>
-      </c>
-      <c r="M70" t="n">
-        <v>2933469.576910973</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>17906939.57736468</v>
-      </c>
-      <c r="C71" t="n">
-        <v>18227070.70286325</v>
-      </c>
-      <c r="D71" t="n">
-        <v>18535369.38098943</v>
-      </c>
-      <c r="E71" t="n">
-        <v>18840563.59955618</v>
-      </c>
-      <c r="F71" t="n">
-        <v>19131909.38348013</v>
-      </c>
-      <c r="G71" t="n">
-        <v>19444249.30390519</v>
-      </c>
-      <c r="H71" t="n">
-        <v>19739089.03343338</v>
-      </c>
-      <c r="I71" t="n">
-        <v>20051158.81744936</v>
-      </c>
-      <c r="J71" t="n">
-        <v>20354638.13480103</v>
-      </c>
-      <c r="K71" t="n">
-        <v>20667498.32023203</v>
-      </c>
-      <c r="L71" t="n">
-        <v>20987109.57877928</v>
-      </c>
-      <c r="M71" t="n">
-        <v>21282475.66967154</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>5342283.622353673</v>
-      </c>
-      <c r="C72" t="n">
-        <v>5693451.569969624</v>
-      </c>
-      <c r="D72" t="n">
-        <v>5977360.329658896</v>
-      </c>
-      <c r="E72" t="n">
-        <v>6212543.915987909</v>
-      </c>
-      <c r="F72" t="n">
-        <v>6150490.984463245</v>
-      </c>
-      <c r="G72" t="n">
-        <v>6408803.811945677</v>
-      </c>
-      <c r="H72" t="n">
-        <v>6489488.044863075</v>
-      </c>
-      <c r="I72" t="n">
-        <v>6488835.736074746</v>
-      </c>
-      <c r="J72" t="n">
-        <v>6765252.406160086</v>
-      </c>
-      <c r="K72" t="n">
-        <v>6733484.349158764</v>
-      </c>
-      <c r="L72" t="n">
-        <v>6859406.955879688</v>
-      </c>
-      <c r="M72" t="n">
-        <v>7080119.878281593</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>5175141.154402971</v>
-      </c>
-      <c r="C73" t="n">
-        <v>5302057.987453938</v>
-      </c>
-      <c r="D73" t="n">
-        <v>5428974.401967287</v>
-      </c>
-      <c r="E73" t="n">
-        <v>5555890.398230195</v>
-      </c>
-      <c r="F73" t="n">
-        <v>5682805.976530075</v>
-      </c>
-      <c r="G73" t="n">
-        <v>5809721.137153864</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5936635.880388498</v>
-      </c>
-      <c r="I73" t="n">
-        <v>6063550.206520557</v>
-      </c>
-      <c r="J73" t="n">
-        <v>6190464.115836263</v>
-      </c>
-      <c r="K73" t="n">
-        <v>6317377.608622074</v>
-      </c>
-      <c r="L73" t="n">
-        <v>6444290.685164094</v>
-      </c>
-      <c r="M73" t="n">
-        <v>6571203.345747828</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>17416015.71643083</v>
-      </c>
-      <c r="C74" t="n">
-        <v>18737147.10130922</v>
-      </c>
-      <c r="D74" t="n">
-        <v>18866466.90212138</v>
-      </c>
-      <c r="E74" t="n">
-        <v>17886622.1819393</v>
-      </c>
-      <c r="F74" t="n">
-        <v>19089237.54145014</v>
-      </c>
-      <c r="G74" t="n">
-        <v>18923888.80066375</v>
-      </c>
-      <c r="H74" t="n">
-        <v>18403322.05608621</v>
-      </c>
-      <c r="I74" t="n">
-        <v>19695505.63962634</v>
-      </c>
-      <c r="J74" t="n">
-        <v>19303691.94386002</v>
-      </c>
-      <c r="K74" t="n">
-        <v>18706381.51671952</v>
-      </c>
-      <c r="L74" t="n">
-        <v>19754595.64460182</v>
-      </c>
-      <c r="M74" t="n">
-        <v>19600768.93691625</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>25562073.90150997</v>
-      </c>
-      <c r="C75" t="n">
-        <v>26066540.56205595</v>
-      </c>
-      <c r="D75" t="n">
-        <v>26590724.29161769</v>
-      </c>
-      <c r="E75" t="n">
-        <v>27340579.55268376</v>
-      </c>
-      <c r="F75" t="n">
-        <v>27534326.77103955</v>
-      </c>
-      <c r="G75" t="n">
-        <v>27764051.3850936</v>
-      </c>
-      <c r="H75" t="n">
-        <v>28435329.76529309</v>
-      </c>
-      <c r="I75" t="n">
-        <v>29253148.57607315</v>
-      </c>
-      <c r="J75" t="n">
-        <v>29891766.60257585</v>
-      </c>
-      <c r="K75" t="n">
-        <v>30860680.68725388</v>
-      </c>
-      <c r="L75" t="n">
-        <v>31248091.88812637</v>
-      </c>
-      <c r="M75" t="n">
-        <v>31272255.38061348</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>3560864.359283447</v>
-      </c>
-      <c r="C76" t="n">
-        <v>3635049.033432007</v>
-      </c>
-      <c r="D76" t="n">
-        <v>3709233.707580566</v>
-      </c>
-      <c r="E76" t="n">
-        <v>3783418.381744385</v>
-      </c>
-      <c r="F76" t="n">
-        <v>3857603.055892944</v>
-      </c>
-      <c r="G76" t="n">
-        <v>3931787.730041504</v>
-      </c>
-      <c r="H76" t="n">
-        <v>4005972.404174805</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4080157.078338623</v>
-      </c>
-      <c r="J76" t="n">
-        <v>4154341.752487183</v>
-      </c>
-      <c r="K76" t="n">
-        <v>4228526.426635742</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4302711.100814819</v>
-      </c>
-      <c r="M76" t="n">
-        <v>4376895.774932861</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>11765502.97612357</v>
-      </c>
-      <c r="C77" t="n">
-        <v>11993647.04272914</v>
-      </c>
-      <c r="D77" t="n">
-        <v>12175293.46127534</v>
-      </c>
-      <c r="E77" t="n">
-        <v>12318601.47884083</v>
-      </c>
-      <c r="F77" t="n">
-        <v>12431639.47668362</v>
-      </c>
-      <c r="G77" t="n">
-        <v>12521914.7323854</v>
-      </c>
-      <c r="H77" t="n">
-        <v>12596117.89336991</v>
-      </c>
-      <c r="I77" t="n">
-        <v>12660012.53773546</v>
-      </c>
-      <c r="J77" t="n">
-        <v>12718419.6529336</v>
-      </c>
-      <c r="K77" t="n">
-        <v>12775261.32993269</v>
-      </c>
-      <c r="L77" t="n">
-        <v>12833638.65782499</v>
-      </c>
-      <c r="M77" t="n">
-        <v>12895926.63851833</v>
+        <v>2969399.347741216</v>
       </c>
     </row>
   </sheetData>
